--- a/biology/Botanique/Spilanthes_acmella/Spilanthes_acmella.xlsx
+++ b/biology/Botanique/Spilanthes_acmella/Spilanthes_acmella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spilanthes acmella est un nom scientifique d'espèce en taxinomie végétale. Néanmoins, à la suite d'erreurs d'identification et de révisions taxinomiques, ce nom est devenu ambigu et invalide. Plusieurs espèces ont en effet reçu ce nom.
 </t>
@@ -511,14 +523,86 @@
           <t>Spilanthes acmella (L.) Murray</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La première description, et la seule valable en nomenclature, est Spilanthes acmella (L.) Murray. Elle est due à Johan Andreas Murray[2]  en 1774. Le basionyme de ce nom est Verbesina acmella L.. Néanmoins, Spilanthes acmella (L.) Murray n'est plus reconnu en taxinomie et est considéré comme synonyme à Blainvillea acmella (L.) Philipson[3].
-Spilanthes acmella sensu DC.
-Au début du XIXe, Augustin Pyrame de Candolle décrit une espèce, pensant traiter de Spilanthes acmella (L.) Murray. Des auteurs après lui, comme Ernst Hans Ludwig Krause, ont pensé le contraire. Cet auteur renomme cette nouvelle espèce potentielle en 1914, Coreopsis acmella E.H.L.Krause[4].
-Néanmoins, on considère actuellement Coreopsis acmella E.H.L.Krause comme étant également synonyme de Blainvillea acmella (L.) Philipson[5].
-Variétés autrefois placées dans cette espèce
-Des variétés ont été placées au sein de Spilanthes acmella (L.) Murray. Un écueil serait de penser qu'elles sont maintenant rangées au sein de Blainvillea acmella (L.) Philipson. En effet, en réalité, celles-ci ont gagné, ou regagné, le statut d'espèces à part entière, qui-plus-est dans un genre botanique autre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description, et la seule valable en nomenclature, est Spilanthes acmella (L.) Murray. Elle est due à Johan Andreas Murray  en 1774. Le basionyme de ce nom est Verbesina acmella L.. Néanmoins, Spilanthes acmella (L.) Murray n'est plus reconnu en taxinomie et est considéré comme synonyme à Blainvillea acmella (L.) Philipson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Spilanthes_acmella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spilanthes_acmella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Spilanthes acmella (L.) Murray</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spilanthes acmella sensu DC.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début du XIXe, Augustin Pyrame de Candolle décrit une espèce, pensant traiter de Spilanthes acmella (L.) Murray. Des auteurs après lui, comme Ernst Hans Ludwig Krause, ont pensé le contraire. Cet auteur renomme cette nouvelle espèce potentielle en 1914, Coreopsis acmella E.H.L.Krause.
+Néanmoins, on considère actuellement Coreopsis acmella E.H.L.Krause comme étant également synonyme de Blainvillea acmella (L.) Philipson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Spilanthes_acmella</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spilanthes_acmella</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spilanthes acmella (L.) Murray</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés autrefois placées dans cette espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Des variétés ont été placées au sein de Spilanthes acmella (L.) Murray. Un écueil serait de penser qu'elles sont maintenant rangées au sein de Blainvillea acmella (L.) Philipson. En effet, en réalité, celles-ci ont gagné, ou regagné, le statut d'espèces à part entière, qui-plus-est dans un genre botanique autre.
 Spilanthes acmella (L.) Murray var. oleracea Hook.f. est maintenant considéré comme synonyme de Acmella oleracea (L.) R.K.Jansen. Il s'agit de la brède mafane.
 À laquelle on peut donc rajouter :
 Spilanthes acmella DC. var. oleracea (Jacq.) Baker est également considéré comme synonyme de Acmella oleracea (L.) R.K.Jansen.
@@ -526,35 +610,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Spilanthes_acmella</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Spilanthes_acmella</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Spilanthes acmella non auct. (L.) Murray</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'autres auteurs ont également nommé des espèces Spilanthes acmella, à tort :
-l'une est Spilanthes acmella non auct. (L.) Murray qui est en fait Acmella caulirhiza Delile[6] ;
-une autre est Spilanthes acmella auct. pl., non auct. (L.) Murray qui est en fait Acmella paniculata (Wall. ex DC.) R.K.Jansen[7].</t>
+l'une est Spilanthes acmella non auct. (L.) Murray qui est en fait Acmella caulirhiza Delile ;
+une autre est Spilanthes acmella auct. pl., non auct. (L.) Murray qui est en fait Acmella paniculata (Wall. ex DC.) R.K.Jansen.</t>
         </is>
       </c>
     </row>
